--- a/data/outputs/能源化工元源数据文件/41PETROLEUM SCIENCE AND TECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件/41PETROLEUM SCIENCE AND TECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ242"/>
+  <dimension ref="A1:BR242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +922,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1335,6 +1342,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1757,6 +1766,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1972,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2179,6 +2190,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2384,6 +2396,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2597,6 +2610,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2802,6 +2816,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3011,6 +3026,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3220,6 +3236,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3433,6 +3450,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3642,6 +3660,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3843,6 +3862,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4044,6 +4064,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4253,6 +4274,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4450,6 +4472,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4651,6 +4674,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4864,6 +4888,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5069,6 +5094,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5274,6 +5300,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5475,6 +5502,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5684,6 +5712,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5893,6 +5922,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6098,6 +6128,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6307,6 +6338,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6504,6 +6536,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6717,6 +6750,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4842734</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6800,7 +6838,7 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr">
         <is>
-          <t> [14R21410600]</t>
+          <t>[14R21410600]</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -6926,6 +6964,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7139,6 +7178,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7356,6 +7396,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7557,6 +7598,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7762,6 +7804,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7963,6 +8006,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8164,6 +8208,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8341,6 +8386,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8550,6 +8596,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8747,6 +8794,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8956,6 +9004,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9165,6 +9214,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9366,6 +9416,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9575,6 +9626,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9780,6 +9832,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9981,6 +10034,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10190,6 +10244,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10399,6 +10454,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10604,6 +10660,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10801,6 +10858,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11002,6 +11060,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11211,6 +11270,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11420,6 +11480,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11633,6 +11694,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4534601</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11838,6 +11904,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12043,6 +12110,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12252,6 +12320,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12461,6 +12530,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12670,6 +12740,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12879,6 +12950,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13084,6 +13156,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13281,6 +13354,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13478,6 +13552,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13564,7 +13639,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Mandal, Ajay/0000-0003-2947-4261; Naiya, Tarun Kumar/0000-0003-2598-7270; </t>
+          <t>Mandal, Ajay/0000-0003-2947-4261; Naiya, Tarun Kumar/0000-0003-2598-7270;</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -13695,6 +13770,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13900,6 +13976,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14113,6 +14190,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14322,6 +14400,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14531,6 +14610,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14748,6 +14828,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14957,6 +15038,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15154,6 +15236,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15355,6 +15438,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15572,6 +15656,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15781,6 +15866,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15986,6 +16072,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16195,6 +16282,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16396,6 +16484,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16593,6 +16682,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16794,6 +16884,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16999,6 +17090,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17200,6 +17292,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17409,6 +17502,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17618,6 +17712,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17819,6 +17914,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18028,6 +18124,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18229,6 +18326,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18446,6 +18544,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18655,6 +18754,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18864,6 +18964,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19073,6 +19174,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19278,6 +19380,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19495,6 +19598,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19704,6 +19808,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19909,6 +20014,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20094,6 +20200,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20295,6 +20402,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20500,6 +20608,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20705,6 +20814,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20914,6 +21024,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21131,6 +21242,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>4534620</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21332,6 +21448,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21549,6 +21666,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21766,6 +21884,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21975,6 +22094,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22176,6 +22296,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22377,6 +22498,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22586,6 +22708,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22787,6 +22910,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22988,6 +23112,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23189,6 +23314,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23398,6 +23524,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23607,6 +23734,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23808,6 +23936,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24021,6 +24150,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24234,6 +24364,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24443,6 +24574,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24652,6 +24784,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24857,6 +24990,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25066,6 +25200,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25275,6 +25410,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25484,6 +25620,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25685,6 +25822,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -25902,6 +26040,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26091,6 +26230,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26268,6 +26408,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26477,6 +26618,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26686,6 +26828,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -26895,6 +27038,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27096,6 +27240,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27305,6 +27450,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27514,6 +27660,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27727,6 +27874,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -27936,6 +28084,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28145,6 +28294,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28358,6 +28508,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28555,6 +28706,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28768,6 +28920,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -28969,6 +29122,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29170,6 +29324,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29379,6 +29534,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29584,6 +29740,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29801,6 +29958,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30002,6 +30160,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30211,6 +30370,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30420,6 +30580,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30633,6 +30794,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -30842,6 +31004,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31039,6 +31202,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31244,6 +31408,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31449,6 +31614,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31666,6 +31832,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -31883,6 +32050,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32080,6 +32248,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32285,6 +32454,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32494,6 +32664,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32695,6 +32866,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -32900,6 +33072,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33097,6 +33270,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33298,6 +33472,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33499,6 +33674,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -33700,6 +33876,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -33901,6 +34078,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34110,6 +34288,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34327,6 +34506,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34528,6 +34708,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -34737,6 +34918,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -34938,6 +35120,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35139,6 +35322,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35356,6 +35540,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35565,6 +35750,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -35774,6 +35960,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -35983,6 +36170,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36180,6 +36368,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36397,6 +36586,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36606,6 +36796,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -36815,6 +37006,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37016,6 +37208,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37225,6 +37418,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37430,6 +37624,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -37639,6 +37834,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -37840,6 +38036,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38041,6 +38238,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38246,6 +38444,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -38459,6 +38658,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -38668,6 +38868,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -38877,6 +39078,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39082,6 +39284,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39287,6 +39490,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -39488,6 +39692,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -39697,6 +39902,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -39902,6 +40108,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40115,6 +40322,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40320,6 +40528,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -40529,6 +40738,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -40738,6 +40948,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -40943,6 +41154,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41156,6 +41368,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -41373,6 +41586,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -41574,6 +41788,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -41779,6 +41994,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -41988,6 +42204,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42189,6 +42406,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -42406,6 +42624,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -42607,6 +42826,11 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr">
+        <is>
+          <t>3447018</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -42808,6 +43032,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43009,6 +43234,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43218,6 +43444,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -43423,6 +43650,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -43632,6 +43860,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -43821,6 +44050,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -43998,6 +44228,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44199,6 +44430,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -44416,6 +44648,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -44625,6 +44858,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -44838,6 +45072,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -45047,6 +45282,7 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -45248,6 +45484,7 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -45465,6 +45702,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -45662,6 +45900,7 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -45839,6 +46078,11 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr">
+        <is>
+          <t>4082392</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -46048,6 +46292,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -46261,6 +46506,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -46478,6 +46724,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -46564,7 +46811,7 @@
       </c>
       <c r="AA224" t="inlineStr">
         <is>
-          <t>Varfolomeev, Mikhail A./0000-0001-8578-6257; </t>
+          <t>Varfolomeev, Mikhail A./0000-0001-8578-6257;</t>
         </is>
       </c>
       <c r="AB224" t="inlineStr"/>
@@ -46687,6 +46934,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -46900,6 +47148,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -47117,6 +47366,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -47326,6 +47576,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -47531,6 +47782,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -47740,6 +47992,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -47949,6 +48202,7 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -48154,6 +48408,7 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -48355,6 +48610,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -48560,6 +48816,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -48769,6 +49026,7 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -48970,6 +49228,7 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -49175,6 +49434,7 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -49384,6 +49644,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -49589,6 +49850,7 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -49798,6 +50060,7 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -50003,6 +50266,7 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -50212,6 +50476,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -50417,6 +50682,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
